--- a/OUTPUT/240331stair_output.xlsx
+++ b/OUTPUT/240331stair_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPM_Labs\___Lab_workspace___\SensorDeploymentOptimizer\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C70534-0CD2-4222-A714-1636B43CFA70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7EC98-8CBB-4CE5-9939-CD554CA53E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,321 @@
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서 대수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회</t>
+  </si>
+  <si>
+    <t>4회</t>
+  </si>
+  <si>
+    <t>5회</t>
+  </si>
+  <si>
+    <t>6회</t>
+  </si>
+  <si>
+    <t>7회</t>
+  </si>
+  <si>
+    <t>8회</t>
+  </si>
+  <si>
+    <t>9회</t>
+  </si>
+  <si>
+    <t>10회</t>
+  </si>
+  <si>
+    <t>11회</t>
+  </si>
+  <si>
+    <t>12회</t>
+  </si>
+  <si>
+    <t>13회</t>
+  </si>
+  <si>
+    <t>14회</t>
+  </si>
+  <si>
+    <t>15회</t>
+  </si>
+  <si>
+    <t>16회</t>
+  </si>
+  <si>
+    <t>17회</t>
+  </si>
+  <si>
+    <t>18회</t>
+  </si>
+  <si>
+    <t>19회</t>
+  </si>
+  <si>
+    <t>20회</t>
+  </si>
+  <si>
+    <t>21회</t>
+  </si>
+  <si>
+    <t>22회</t>
+  </si>
+  <si>
+    <t>23회</t>
+  </si>
+  <si>
+    <t>24회</t>
+  </si>
+  <si>
+    <t>25회</t>
+  </si>
+  <si>
+    <t>26회</t>
+  </si>
+  <si>
+    <t>27회</t>
+  </si>
+  <si>
+    <t>28회</t>
+  </si>
+  <si>
+    <t>29회</t>
+  </si>
+  <si>
+    <t>30회</t>
+  </si>
+  <si>
+    <t>31회</t>
+  </si>
+  <si>
+    <t>32회</t>
+  </si>
+  <si>
+    <t>33회</t>
+  </si>
+  <si>
+    <t>34회</t>
+  </si>
+  <si>
+    <t>35회</t>
+  </si>
+  <si>
+    <t>36회</t>
+  </si>
+  <si>
+    <t>37회</t>
+  </si>
+  <si>
+    <t>38회</t>
+  </si>
+  <si>
+    <t>39회</t>
+  </si>
+  <si>
+    <t>40회</t>
+  </si>
+  <si>
+    <t>41회</t>
+  </si>
+  <si>
+    <t>42회</t>
+  </si>
+  <si>
+    <t>43회</t>
+  </si>
+  <si>
+    <t>44회</t>
+  </si>
+  <si>
+    <t>45회</t>
+  </si>
+  <si>
+    <t>46회</t>
+  </si>
+  <si>
+    <t>47회</t>
+  </si>
+  <si>
+    <t>48회</t>
+  </si>
+  <si>
+    <t>49회</t>
+  </si>
+  <si>
+    <t>50회</t>
+  </si>
+  <si>
+    <t>51회</t>
+  </si>
+  <si>
+    <t>52회</t>
+  </si>
+  <si>
+    <t>53회</t>
+  </si>
+  <si>
+    <t>54회</t>
+  </si>
+  <si>
+    <t>55회</t>
+  </si>
+  <si>
+    <t>56회</t>
+  </si>
+  <si>
+    <t>57회</t>
+  </si>
+  <si>
+    <t>58회</t>
+  </si>
+  <si>
+    <t>59회</t>
+  </si>
+  <si>
+    <t>60회</t>
+  </si>
+  <si>
+    <t>61회</t>
+  </si>
+  <si>
+    <t>62회</t>
+  </si>
+  <si>
+    <t>63회</t>
+  </si>
+  <si>
+    <t>64회</t>
+  </si>
+  <si>
+    <t>65회</t>
+  </si>
+  <si>
+    <t>66회</t>
+  </si>
+  <si>
+    <t>67회</t>
+  </si>
+  <si>
+    <t>68회</t>
+  </si>
+  <si>
+    <t>69회</t>
+  </si>
+  <si>
+    <t>70회</t>
+  </si>
+  <si>
+    <t>71회</t>
+  </si>
+  <si>
+    <t>72회</t>
+  </si>
+  <si>
+    <t>73회</t>
+  </si>
+  <si>
+    <t>74회</t>
+  </si>
+  <si>
+    <t>75회</t>
+  </si>
+  <si>
+    <t>76회</t>
+  </si>
+  <si>
+    <t>77회</t>
+  </si>
+  <si>
+    <t>78회</t>
+  </si>
+  <si>
+    <t>79회</t>
+  </si>
+  <si>
+    <t>80회</t>
+  </si>
+  <si>
+    <t>81회</t>
+  </si>
+  <si>
+    <t>82회</t>
+  </si>
+  <si>
+    <t>83회</t>
+  </si>
+  <si>
+    <t>84회</t>
+  </si>
+  <si>
+    <t>85회</t>
+  </si>
+  <si>
+    <t>86회</t>
+  </si>
+  <si>
+    <t>87회</t>
+  </si>
+  <si>
+    <t>88회</t>
+  </si>
+  <si>
+    <t>89회</t>
+  </si>
+  <si>
+    <t>90회</t>
+  </si>
+  <si>
+    <t>91회</t>
+  </si>
+  <si>
+    <t>92회</t>
+  </si>
+  <si>
+    <t>93회</t>
+  </si>
+  <si>
+    <t>94회</t>
+  </si>
+  <si>
+    <t>95회</t>
+  </si>
+  <si>
+    <t>96회</t>
+  </si>
+  <si>
+    <t>97회</t>
+  </si>
+  <si>
+    <t>98회</t>
+  </si>
+  <si>
+    <t>99회</t>
+  </si>
+  <si>
+    <t>100회</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,6 +414,1676 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" b="1">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>140*140</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" b="1" baseline="0">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" b="1" baseline="0">
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+              </a:rPr>
+              <a:t>계단형 현장 데이터에서 유전알고리즘 실행 결과</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" b="1">
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>센서 대수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>87.707241773605347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.510859489440918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.442630767822266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.917840003967285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.839560508728027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.032025098800659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.468060493469238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.242496967315674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.448340892791748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.068145990371704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.074966907501221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.24759578704834</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.992959022521973</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.874919891357422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.395895719528198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>83.315515279769897</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.482136249542236</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.24031400680542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.279826402664185</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.990134477615356</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.323831081390381</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.375550270080566</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.569543123245239</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.210274934768677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.606679677963257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.393763542175293</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.420598745346069</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83.097872018814087</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.559967994689941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83.063970565795898</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.241700649261475</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.978380441665649</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.785134077072144</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.636674165725708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.830572843551636</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.713095426559448</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83.005142688751221</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82.521026372909546</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83.036274194717407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82.680713176727295</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82.599412441253662</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>83.150798559188843</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>83.446457386016846</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>83.375776767730713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>83.3555588722229</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.814046382904053</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.899626016616821</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.653543710708618</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>82.968413591384888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.87462329864502</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82.762861967086792</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.623709917068481</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82.278430700302124</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.354613304138184</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>82.583701133728027</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>82.774755239486694</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.901365041732788</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.726363658905029</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>83.183690786361694</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>82.783819913864136</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82.721753120422363</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>83.032790899276733</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82.799984693527222</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82.854867458343506</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82.608010768890381</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>82.98393177986145</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82.565797567367554</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>82.49933385848999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82.527342557907104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>82.864069700241089</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>83.074666500091553</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82.564501523971558</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.650984287261963</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.871013402938843</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.825176477432251</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.777857065200806</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.540502786636353</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.625703573226929</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>82.673859834671021</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>82.594140291213989</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.731756687164307</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.67005729675293</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.658699035644531</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83.116816759109497</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83.359866380691528</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>83.15131688117981</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.95376992225647</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>83.761991739273071</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>82.566814661026001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>82.727968692779541</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>86.45341682434082</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>82.508995771408081</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>82.638024091720581</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>82.541497707366943</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>82.642050981521606</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82.631157636642456</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>82.930418252944946</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>82.640633583068848</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>82.785402059555054</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>83.307464838027954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B62-4268-95FD-264D8F45F764}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1405846735"/>
+        <c:axId val="1490905535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1405846735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>실행 시간</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>초</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490905535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1490905535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>센서 대수</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>대</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405846735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85749740-2332-4A9C-81F5-7011D61DE493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,834 +2371,1135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="B1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>87.707241773605347</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>86.510859489440918</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>84.442630767822266</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>83.917840003967285</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>83.839560508728027</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
         <v>88.032025098800659</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>95.468060493469238</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>83.242496967315674</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>83.448340892791748</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
         <v>83.068145990371704</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>83.074966907501221</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
         <v>83.24759578704834</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>87.992959022521973</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
         <v>82.874919891357422</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
         <v>83.395895719528198</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>83.315515279769897</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
         <v>83.482136249542236</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
         <v>83.24031400680542</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
         <v>87.279826402664185</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
         <v>82.990134477615356</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
         <v>82.323831081390381</v>
       </c>
-      <c r="B22">
+      <c r="D22">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
         <v>82.375550270080566</v>
       </c>
-      <c r="B23">
+      <c r="D23">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
         <v>82.569543123245239</v>
       </c>
-      <c r="B24">
+      <c r="D24">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
         <v>83.210274934768677</v>
       </c>
-      <c r="B25">
+      <c r="D25">
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
         <v>82.606679677963257</v>
       </c>
-      <c r="B26">
+      <c r="D26">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
         <v>82.393763542175293</v>
       </c>
-      <c r="B27">
+      <c r="D27">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
         <v>82.420598745346069</v>
       </c>
-      <c r="B28">
+      <c r="D28">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
         <v>83.097872018814087</v>
       </c>
-      <c r="B29">
+      <c r="D29">
         <v>205</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
         <v>83.559967994689941</v>
       </c>
-      <c r="B30">
+      <c r="D30">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
         <v>83.063970565795898</v>
       </c>
-      <c r="B31">
+      <c r="D31">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
         <v>83.241700649261475</v>
       </c>
-      <c r="B32">
+      <c r="D32">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
         <v>82.978380441665649</v>
       </c>
-      <c r="B33">
+      <c r="D33">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
         <v>82.785134077072144</v>
       </c>
-      <c r="B34">
+      <c r="D34">
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
         <v>82.636674165725708</v>
       </c>
-      <c r="B35">
+      <c r="D35">
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
         <v>82.830572843551636</v>
       </c>
-      <c r="B36">
+      <c r="D36">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>82.713095426559448</v>
       </c>
-      <c r="B37">
+      <c r="D37">
         <v>213</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
         <v>83.005142688751221</v>
       </c>
-      <c r="B38">
+      <c r="D38">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
         <v>82.521026372909546</v>
       </c>
-      <c r="B39">
+      <c r="D39">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
         <v>83.036274194717407</v>
       </c>
-      <c r="B40">
+      <c r="D40">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
         <v>82.680713176727295</v>
       </c>
-      <c r="B41">
+      <c r="D41">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
         <v>82.599412441253662</v>
       </c>
-      <c r="B42">
+      <c r="D42">
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
         <v>83.150798559188843</v>
       </c>
-      <c r="B43">
+      <c r="D43">
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
         <v>83.446457386016846</v>
       </c>
-      <c r="B44">
+      <c r="D44">
         <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
         <v>83.375776767730713</v>
       </c>
-      <c r="B45">
+      <c r="D45">
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
         <v>83.3555588722229</v>
       </c>
-      <c r="B46">
+      <c r="D46">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
         <v>82.814046382904053</v>
       </c>
-      <c r="B47">
+      <c r="D47">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
         <v>82.899626016616821</v>
       </c>
-      <c r="B48">
+      <c r="D48">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
         <v>82.653543710708618</v>
       </c>
-      <c r="B49">
+      <c r="D49">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
         <v>82.968413591384888</v>
       </c>
-      <c r="B50">
+      <c r="D50">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
         <v>82.87462329864502</v>
       </c>
-      <c r="B51">
+      <c r="D51">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>82.762861967086792</v>
       </c>
-      <c r="B52">
+      <c r="D52">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
         <v>82.623709917068481</v>
       </c>
-      <c r="B53">
+      <c r="D53">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
         <v>82.278430700302124</v>
       </c>
-      <c r="B54">
+      <c r="D54">
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
         <v>82.354613304138184</v>
       </c>
-      <c r="B55">
+      <c r="D55">
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
         <v>82.583701133728027</v>
       </c>
-      <c r="B56">
+      <c r="D56">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
         <v>82.774755239486694</v>
       </c>
-      <c r="B57">
+      <c r="D57">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
         <v>82.901365041732788</v>
       </c>
-      <c r="B58">
+      <c r="D58">
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
         <v>82.726363658905029</v>
       </c>
-      <c r="B59">
+      <c r="D59">
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
         <v>83.183690786361694</v>
       </c>
-      <c r="B60">
+      <c r="D60">
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
         <v>82.783819913864136</v>
       </c>
-      <c r="B61">
+      <c r="D61">
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
         <v>82.721753120422363</v>
       </c>
-      <c r="B62">
+      <c r="D62">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
         <v>83.032790899276733</v>
       </c>
-      <c r="B63">
+      <c r="D63">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
         <v>82.799984693527222</v>
       </c>
-      <c r="B64">
+      <c r="D64">
         <v>205</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
         <v>82.854867458343506</v>
       </c>
-      <c r="B65">
+      <c r="D65">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
         <v>82.608010768890381</v>
       </c>
-      <c r="B66">
+      <c r="D66">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
         <v>82.98393177986145</v>
       </c>
-      <c r="B67">
+      <c r="D67">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
         <v>82.565797567367554</v>
       </c>
-      <c r="B68">
+      <c r="D68">
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
         <v>82.49933385848999</v>
       </c>
-      <c r="B69">
+      <c r="D69">
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
         <v>82.527342557907104</v>
       </c>
-      <c r="B70">
+      <c r="D70">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
         <v>82.864069700241089</v>
       </c>
-      <c r="B71">
+      <c r="D71">
         <v>210</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
         <v>83.074666500091553</v>
       </c>
-      <c r="B72">
+      <c r="D72">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
         <v>82.564501523971558</v>
       </c>
-      <c r="B73">
+      <c r="D73">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
         <v>82.650984287261963</v>
       </c>
-      <c r="B74">
+      <c r="D74">
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
         <v>82.871013402938843</v>
       </c>
-      <c r="B75">
+      <c r="D75">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
         <v>82.825176477432251</v>
       </c>
-      <c r="B76">
+      <c r="D76">
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
         <v>82.777857065200806</v>
       </c>
-      <c r="B77">
+      <c r="D77">
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
         <v>82.540502786636353</v>
       </c>
-      <c r="B78">
+      <c r="D78">
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
         <v>82.625703573226929</v>
       </c>
-      <c r="B79">
+      <c r="D79">
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
         <v>82.673859834671021</v>
       </c>
-      <c r="B80">
+      <c r="D80">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
         <v>82.594140291213989</v>
       </c>
-      <c r="B81">
+      <c r="D81">
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
         <v>82.731756687164307</v>
       </c>
-      <c r="B82">
+      <c r="D82">
         <v>206</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
         <v>82.67005729675293</v>
       </c>
-      <c r="B83">
+      <c r="D83">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
         <v>83.658699035644531</v>
       </c>
-      <c r="B84">
+      <c r="D84">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
         <v>83.116816759109497</v>
       </c>
-      <c r="B85">
+      <c r="D85">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
         <v>83.359866380691528</v>
       </c>
-      <c r="B86">
+      <c r="D86">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
         <v>83.15131688117981</v>
       </c>
-      <c r="B87">
+      <c r="D87">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
         <v>82.95376992225647</v>
       </c>
-      <c r="B88">
+      <c r="D88">
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
         <v>83.761991739273071</v>
       </c>
-      <c r="B89">
+      <c r="D89">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
         <v>82.566814661026001</v>
       </c>
-      <c r="B90">
+      <c r="D90">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
         <v>82.727968692779541</v>
       </c>
-      <c r="B91">
+      <c r="D91">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
         <v>86.45341682434082</v>
       </c>
-      <c r="B92">
+      <c r="D92">
         <v>212</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
         <v>82.508995771408081</v>
       </c>
-      <c r="B93">
+      <c r="D93">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
         <v>82.638024091720581</v>
       </c>
-      <c r="B94">
+      <c r="D94">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
         <v>82.541497707366943</v>
       </c>
-      <c r="B95">
+      <c r="D95">
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
         <v>82.642050981521606</v>
       </c>
-      <c r="B96">
+      <c r="D96">
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
         <v>82.631157636642456</v>
       </c>
-      <c r="B97">
+      <c r="D97">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
         <v>82.930418252944946</v>
       </c>
-      <c r="B98">
+      <c r="D98">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
         <v>82.640633583068848</v>
       </c>
-      <c r="B99">
+      <c r="D99">
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
         <v>82.785402059555054</v>
       </c>
-      <c r="B100">
+      <c r="D100">
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
         <v>83.307464838027954</v>
       </c>
-      <c r="B101">
+      <c r="D101">
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <f>AVERAGE(A2,A101)</f>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <f>AVERAGE(C2,C101)</f>
         <v>85.50735330581665</v>
       </c>
-      <c r="B103">
-        <f>AVERAGE(B2, B101)</f>
+      <c r="D103">
+        <f>AVERAGE(D2, D101)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/OUTPUT/240331stair_output.xlsx
+++ b/OUTPUT/240331stair_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IPM_Labs\___Lab_workspace___\SensorDeploymentOptimizer\OUTPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7EC98-8CBB-4CE5-9939-CD554CA53E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A62E1D6-EEB4-4C17-92B3-A62765398EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Runtime</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -330,6 +330,30 @@
   </si>
   <si>
     <t>100회</t>
+  </si>
+  <si>
+    <t>실행평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대수평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행최대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행최소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대수최대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대수최소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -359,12 +383,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -394,11 +424,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -450,30 +481,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" b="1">
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
               </a:rPr>
-              <a:t>140*140</a:t>
+              <a:t>140 X 140 Stair</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" b="1" baseline="0">
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" b="1" baseline="0">
-                <a:latin typeface="+mj-ea"/>
-                <a:ea typeface="+mj-ea"/>
-              </a:rPr>
-              <a:t>계단형 현장 데이터에서 유전알고리즘 실행 결과</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" b="1">
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -550,10 +562,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$101</c:f>
+              <c:f>Sheet1!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>87.707241773605347</c:v>
                 </c:pt>
@@ -733,136 +745,16 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>82.783819913864136</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>82.721753120422363</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>83.032790899276733</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>82.799984693527222</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>82.854867458343506</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>82.608010768890381</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>82.98393177986145</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>82.565797567367554</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>82.49933385848999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>82.527342557907104</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>82.864069700241089</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>83.074666500091553</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>82.564501523971558</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82.650984287261963</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>82.871013402938843</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>82.825176477432251</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>82.777857065200806</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>82.540502786636353</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>82.625703573226929</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>82.673859834671021</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>82.594140291213989</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82.731756687164307</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82.67005729675293</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83.658699035644531</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83.116816759109497</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>83.359866380691528</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>83.15131688117981</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>82.95376992225647</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>83.761991739273071</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>82.566814661026001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>82.727968692779541</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>86.45341682434082</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>82.508995771408081</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>82.638024091720581</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>82.541497707366943</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>82.642050981521606</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>82.631157636642456</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>82.930418252944946</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>82.640633583068848</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>82.785402059555054</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>83.307464838027954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$101</c:f>
+              <c:f>Sheet1!$D$2:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>195</c:v>
                 </c:pt>
@@ -1042,126 +934,6 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +941,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B62-4268-95FD-264D8F45F764}"/>
+              <c16:uniqueId val="{00000000-CF41-4481-BDA1-976B155BAB7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1181,11 +953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1405846735"/>
-        <c:axId val="1490905535"/>
+        <c:axId val="67501439"/>
+        <c:axId val="69113039"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1405846735"/>
+        <c:axId val="67501439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +998,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ko-KR" altLang="en-US"/>
-                  <a:t>실행 시간</a:t>
+                  <a:t>동작 시간</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ko-KR"/>
@@ -1240,7 +1012,6 @@
                   <a:rPr lang="en-US" altLang="ko-KR"/>
                   <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1310,12 +1081,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490905535"/>
+        <c:crossAx val="69113039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1490905535"/>
+        <c:axId val="69113039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,7 +1141,6 @@
                   <a:rPr lang="en-US" altLang="ko-KR"/>
                   <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1404,8 +1174,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="cross"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1440,7 +1210,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1405846735"/>
+        <c:crossAx val="67501439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2049,23 +1819,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23137</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85749740-2332-4A9C-81F5-7011D61DE493}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2B4EF37-A86E-4B7E-832D-37AB5AFD0454}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D103"/>
+  <dimension ref="B1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="Q74" sqref="Q74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2904,7 +2674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>49</v>
       </c>
@@ -2915,7 +2685,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>50</v>
       </c>
@@ -2926,7 +2696,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>51</v>
       </c>
@@ -2937,7 +2707,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>52</v>
       </c>
@@ -2948,7 +2718,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>53</v>
       </c>
@@ -2959,7 +2729,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>54</v>
       </c>
@@ -2970,7 +2740,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>55</v>
       </c>
@@ -2981,7 +2751,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>56</v>
       </c>
@@ -2992,7 +2762,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>57</v>
       </c>
@@ -3002,8 +2772,14 @@
       <c r="D57">
         <v>195</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>58</v>
       </c>
@@ -3013,8 +2789,16 @@
       <c r="D58">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F58" s="2">
+        <f>MAX($C$2:$C$61)</f>
+        <v>95.468060493469238</v>
+      </c>
+      <c r="G58" s="2">
+        <f>MAX($D$2:$D$61)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>59</v>
       </c>
@@ -3025,7 +2809,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>60</v>
       </c>
@@ -3035,8 +2819,14 @@
       <c r="D60">
         <v>192</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>61</v>
       </c>
@@ -3046,409 +2836,420 @@
       <c r="D61">
         <v>204</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+      <c r="F61" s="2">
+        <f>AVERAGE($C$2:$C$61)</f>
+        <v>83.562230006853738</v>
+      </c>
+      <c r="G61" s="2">
+        <f>AVERAGE(D2:D61)</f>
+        <v>202.98333333333332</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>82.721753120422363</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>210</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+      <c r="F63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>83.032790899276733</v>
-      </c>
-      <c r="D63">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64">
-        <v>82.799984693527222</v>
       </c>
       <c r="D64">
         <v>205</v>
       </c>
+      <c r="F64" s="2">
+        <f>MIN($C$2:$C$61)</f>
+        <v>82.278430700302124</v>
+      </c>
+      <c r="G64" s="2">
+        <f>MIN(D2:D61)</f>
+        <v>184</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>82.854867458343506</v>
+        <v>82.799984693527222</v>
       </c>
       <c r="D65">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>82.608010768890381</v>
+        <v>82.854867458343506</v>
       </c>
       <c r="D66">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>82.98393177986145</v>
+        <v>82.608010768890381</v>
       </c>
       <c r="D67">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>82.565797567367554</v>
+        <v>82.98393177986145</v>
       </c>
       <c r="D68">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>82.49933385848999</v>
+        <v>82.565797567367554</v>
       </c>
       <c r="D69">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>82.527342557907104</v>
+        <v>82.49933385848999</v>
       </c>
       <c r="D70">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>82.864069700241089</v>
+        <v>82.527342557907104</v>
       </c>
       <c r="D71">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>83.074666500091553</v>
+        <v>82.864069700241089</v>
       </c>
       <c r="D72">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <v>82.564501523971558</v>
+        <v>83.074666500091553</v>
       </c>
       <c r="D73">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <v>82.650984287261963</v>
+        <v>82.564501523971558</v>
       </c>
       <c r="D74">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <v>82.871013402938843</v>
+        <v>82.650984287261963</v>
       </c>
       <c r="D75">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76">
-        <v>82.825176477432251</v>
+        <v>82.871013402938843</v>
       </c>
       <c r="D76">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77">
-        <v>82.777857065200806</v>
+        <v>82.825176477432251</v>
       </c>
       <c r="D77">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C78">
-        <v>82.540502786636353</v>
+        <v>82.777857065200806</v>
       </c>
       <c r="D78">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79">
-        <v>82.625703573226929</v>
+        <v>82.540502786636353</v>
       </c>
       <c r="D79">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C80">
-        <v>82.673859834671021</v>
+        <v>82.625703573226929</v>
       </c>
       <c r="D80">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81">
-        <v>82.594140291213989</v>
+        <v>82.673859834671021</v>
       </c>
       <c r="D81">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82">
-        <v>82.731756687164307</v>
+        <v>82.594140291213989</v>
       </c>
       <c r="D82">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83">
-        <v>82.67005729675293</v>
+        <v>82.731756687164307</v>
       </c>
       <c r="D83">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84">
-        <v>83.658699035644531</v>
+        <v>82.67005729675293</v>
       </c>
       <c r="D84">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85">
-        <v>83.116816759109497</v>
+        <v>83.658699035644531</v>
       </c>
       <c r="D85">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86">
-        <v>83.359866380691528</v>
+        <v>83.116816759109497</v>
       </c>
       <c r="D86">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87">
-        <v>83.15131688117981</v>
+        <v>83.359866380691528</v>
       </c>
       <c r="D87">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88">
-        <v>82.95376992225647</v>
+        <v>83.15131688117981</v>
       </c>
       <c r="D88">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89">
-        <v>83.761991739273071</v>
+        <v>82.95376992225647</v>
       </c>
       <c r="D89">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90">
-        <v>82.566814661026001</v>
+        <v>83.761991739273071</v>
       </c>
       <c r="D90">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91">
-        <v>82.727968692779541</v>
+        <v>82.566814661026001</v>
       </c>
       <c r="D91">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92">
-        <v>86.45341682434082</v>
+        <v>82.727968692779541</v>
       </c>
       <c r="D92">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>82.508995771408081</v>
+        <v>86.45341682434082</v>
       </c>
       <c r="D93">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C94">
-        <v>82.638024091720581</v>
+        <v>82.508995771408081</v>
       </c>
       <c r="D94">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C95">
-        <v>82.541497707366943</v>
+        <v>82.638024091720581</v>
       </c>
       <c r="D95">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C96">
-        <v>82.642050981521606</v>
+        <v>82.541497707366943</v>
       </c>
       <c r="D96">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97">
-        <v>82.631157636642456</v>
+        <v>82.642050981521606</v>
       </c>
       <c r="D97">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98">
-        <v>82.930418252944946</v>
+        <v>82.631157636642456</v>
       </c>
       <c r="D98">
         <v>202</v>
@@ -3456,45 +3257,46 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>82.640633583068848</v>
+        <v>82.930418252944946</v>
       </c>
       <c r="D99">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>82.785402059555054</v>
+        <v>82.640633583068848</v>
       </c>
       <c r="D100">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>82.785402059555054</v>
+      </c>
+      <c r="D101">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>101</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>83.307464838027954</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>213</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C103">
-        <f>AVERAGE(C2,C101)</f>
-        <v>85.50735330581665</v>
-      </c>
-      <c r="D103">
-        <f>AVERAGE(D2, D101)</f>
-        <v>204</v>
       </c>
     </row>
   </sheetData>
